--- a/Alif Ramdhani Prasetiyo- 201011400903 - UTS SPK.xlsx
+++ b/Alif Ramdhani Prasetiyo- 201011400903 - UTS SPK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\AlifRamdhani\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8886883-D4B4-4091-B2FC-CFEF55446CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28272F9-A5CF-4EBB-91CD-2695BF4F8E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{68E6060E-666C-4768-A0FD-7F510B0E59CE}"/>
   </bookViews>
@@ -100,12 +100,6 @@
   </si>
   <si>
     <t>Tertinggi</t>
-  </si>
-  <si>
-    <t>SPK Pemilihan Laptop</t>
-  </si>
-  <si>
-    <t>Laptop</t>
   </si>
   <si>
     <t>Toyota GR Supra</t>
@@ -336,6 +330,12 @@
       </rPr>
       <t>0,1134669</t>
     </r>
+  </si>
+  <si>
+    <t>SPK Pemilihan Mobil Sports</t>
+  </si>
+  <si>
+    <t>merk mobil sports</t>
   </si>
 </sst>
 </file>
@@ -514,6 +514,25 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -535,31 +554,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1065,8 +1065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85B244D-911D-45BE-82A7-5139286C9D27}">
   <dimension ref="B1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="98" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="98" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1082,304 +1082,304 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="9">
+        <v>4990</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="9">
+        <v>5100</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="16" t="s">
+      <c r="G4" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="16">
-        <v>4990</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="C5" s="9">
+        <v>5000</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G5" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="16" t="s">
+    <row r="6" spans="2:7">
+      <c r="B6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="16">
-        <v>5100</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="C6" s="9">
+        <v>5050</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G6" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="16" t="s">
+    <row r="7" spans="2:7">
+      <c r="B7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="16">
-        <v>5000</v>
-      </c>
-      <c r="D5" s="17" t="s">
+      <c r="C7" s="9">
+        <v>5150</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F7" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G7" s="9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="16" t="s">
+    <row r="8" spans="2:7">
+      <c r="B8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="16">
-        <v>5050</v>
-      </c>
-      <c r="D6" s="17" t="s">
+      <c r="C8" s="9">
+        <v>4200</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="9">
+        <v>4800</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="16">
-        <v>5150</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="16" t="s">
+      <c r="F9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="9">
+        <v>4900</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="16">
-        <v>4200</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="16" t="s">
+      <c r="G10" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="9">
+        <v>5010</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="9">
+        <v>4800</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="16">
-        <v>4800</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="16" t="s">
+      <c r="G12" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="16">
-        <v>4900</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="16" t="s">
+    <row r="14" spans="2:7">
+      <c r="B14" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="16">
-        <v>5010</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="16">
-        <v>4800</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="16" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="23" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="16">
+      <c r="C19" s="24"/>
+      <c r="D19" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="16">
-        <v>7</v>
-      </c>
-    </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="20">
+      <c r="C20" s="22"/>
+      <c r="D20" s="11">
         <f>SUM(D15:D19)</f>
         <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="3" t="s">
@@ -1393,7 +1393,7 @@
       <c r="B25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="9">
         <f>D15/D20</f>
         <v>0.2857142857142857</v>
       </c>
@@ -1402,7 +1402,7 @@
       <c r="B26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="9">
         <f>D16/D20</f>
         <v>0.10714285714285714</v>
       </c>
@@ -1411,7 +1411,7 @@
       <c r="B27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="9">
         <f>D17/D20</f>
         <v>0.25</v>
       </c>
@@ -1420,7 +1420,7 @@
       <c r="B28" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="9">
         <f>D18/D20</f>
         <v>0.10714285714285714</v>
       </c>
@@ -1429,7 +1429,7 @@
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="9">
         <f>D19/D20</f>
         <v>0.25</v>
       </c>
@@ -1444,60 +1444,60 @@
       </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="21" t="s">
+      <c r="B36" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>88</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="G36" s="21" t="s">
-        <v>90</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="16">
+      <c r="B37" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="9">
         <v>4990</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="13">
         <v>219000000</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="9">
         <v>189</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="9">
         <v>113</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="9">
         <v>40</v>
       </c>
       <c r="H37" s="4">
@@ -1506,22 +1506,22 @@
       </c>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="16">
+      <c r="B38" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="9">
         <v>5100</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="14">
         <v>4030000000</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="9">
         <v>196</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="9">
         <v>153</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="9">
         <v>50</v>
       </c>
       <c r="H38" s="4">
@@ -1530,22 +1530,22 @@
       </c>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C39" s="16">
+      <c r="B39" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="9">
         <v>5000</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="13">
         <v>4240000000</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="9">
         <v>179</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="9">
         <v>145</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G39" s="9">
         <v>53</v>
       </c>
       <c r="H39" s="4">
@@ -1554,22 +1554,22 @@
       </c>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="16">
+      <c r="B40" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="9">
         <v>5050</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="13">
         <v>4190000000</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="9">
         <v>180</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="9">
         <v>134</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="9">
         <v>80</v>
       </c>
       <c r="H40" s="4">
@@ -1578,22 +1578,22 @@
       </c>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="16">
+      <c r="B41" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="9">
         <v>5150</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="13">
         <v>4230000000</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="9">
         <v>189</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F41" s="9">
         <v>148</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G41" s="9">
         <v>65</v>
       </c>
       <c r="H41" s="4">
@@ -1602,22 +1602,22 @@
       </c>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="16">
+      <c r="B42" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="9">
         <v>4200</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="13">
         <v>3000000000</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="9">
         <v>179</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="9">
         <v>150</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G42" s="9">
         <v>55</v>
       </c>
       <c r="H42" s="4">
@@ -1626,22 +1626,22 @@
       </c>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="16">
+      <c r="B43" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="9">
         <v>4800</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="13">
         <v>519000000</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="9">
         <v>197</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="9">
         <v>145</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="9">
         <v>70</v>
       </c>
       <c r="H43" s="4">
@@ -1650,22 +1650,22 @@
       </c>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="16">
+      <c r="B44" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="9">
         <v>4900</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="13">
         <v>4800000000</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="9">
         <v>195</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="9">
         <v>155</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G44" s="9">
         <v>60</v>
       </c>
       <c r="H44" s="4">
@@ -1674,22 +1674,22 @@
       </c>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="16">
+      <c r="B45" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="9">
         <v>5010</v>
       </c>
-      <c r="D45" s="22">
+      <c r="D45" s="13">
         <v>4050000000</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="9">
         <v>198</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45" s="9">
         <v>145</v>
       </c>
-      <c r="G45" s="16">
+      <c r="G45" s="9">
         <v>65</v>
       </c>
       <c r="H45" s="4">
@@ -1698,22 +1698,22 @@
       </c>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="16">
+      <c r="B46" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" s="9">
         <v>4800</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="13">
         <v>470000000</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="9">
         <v>189</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="9">
         <v>160</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="9">
         <v>40</v>
       </c>
       <c r="H46" s="4">
@@ -1725,25 +1725,25 @@
       <c r="C47" s="5"/>
       <c r="E47" s="6"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="24">
+      <c r="H47" s="15">
         <f>SUM(H37:H46)</f>
         <v>153.28292211584281</v>
       </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
     </row>
     <row r="49" spans="2:5">
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
     </row>
     <row r="50" spans="2:5">
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
     </row>
     <row r="51" spans="2:5">
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -1751,7 +1751,7 @@
       </c>
     </row>
     <row r="52" spans="2:5">
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C52" s="1">
@@ -1760,7 +1760,7 @@
       </c>
     </row>
     <row r="53" spans="2:5">
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="1">
@@ -1769,7 +1769,7 @@
       </c>
     </row>
     <row r="54" spans="2:5">
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="1">
@@ -1778,7 +1778,7 @@
       </c>
     </row>
     <row r="55" spans="2:5">
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C55" s="1">
@@ -1787,7 +1787,7 @@
       </c>
     </row>
     <row r="56" spans="2:5">
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C56" s="1">
@@ -1796,7 +1796,7 @@
       </c>
     </row>
     <row r="57" spans="2:5">
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C57" s="1">
@@ -1805,7 +1805,7 @@
       </c>
     </row>
     <row r="58" spans="2:5">
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C58" s="1">
@@ -1814,7 +1814,7 @@
       </c>
     </row>
     <row r="59" spans="2:5">
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C59" s="1">
@@ -1823,7 +1823,7 @@
       </c>
     </row>
     <row r="60" spans="2:5">
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C60" s="1">
@@ -1832,7 +1832,7 @@
       </c>
     </row>
     <row r="61" spans="2:5">
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C61" s="1">
@@ -1841,7 +1841,7 @@
       </c>
     </row>
     <row r="62" spans="2:5">
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C62" s="8">
@@ -1850,12 +1850,12 @@
       </c>
     </row>
     <row r="64" spans="2:5">
-      <c r="B64" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
+      <c r="B64" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="12">
